--- a/AI1.xlsx
+++ b/AI1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21107"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{570442EE-A9D8-479C-B54F-410F9760BEFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -22,76 +21,220 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Letter Segmentation Module</t>
-  </si>
-  <si>
-    <t>grup:</t>
-  </si>
-  <si>
-    <t>Discutia cu celelalte module si decizia asupra anumitor elemente de implementare:</t>
-  </si>
-  <si>
-    <t>- input: imagine ce contine un rand; output: lista de matrici(cate o matrice pentru fiecare litera de pe rand; valorile matricei cuprinse intre 0(alb) si 1(negru))</t>
-  </si>
-  <si>
-    <t>- impartirea randului in litere se face pe baza unei lungimi medii a literelor</t>
-  </si>
-  <si>
-    <t>Documentare asupra problemei si a implementarii:</t>
-  </si>
-  <si>
-    <t>Balaita Anca-Georgiana</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/228896273_Character_segmentation_and_recognition_algorithm_of_text_region_in_steel_images</t>
-  </si>
-  <si>
-    <t>https://pdfs.semanticscholar.org/cadb/b5409ed07abba109422ef516c822a9fcb014.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S2212017314000954</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/ftp/arxiv/papers/1210/1210.0347.pdf</t>
-  </si>
-  <si>
-    <t>Duduman Rodica-Adina</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_5ml_Y9hqG8</t>
-  </si>
-  <si>
-    <t>https://developer.ibm.com/tutorials/document-scanner/</t>
-  </si>
-  <si>
-    <t>https://ampersandacademy.com/tutorials/python-data-science/recognise-text-and-digit-from-the-image-with-python-opencv-and-tesseract-ocr</t>
-  </si>
-  <si>
-    <t>https://www.quora.com/How-can-I-make-an-OCR-using-python-and-machine-learning-libraries</t>
-  </si>
-  <si>
-    <t>Timcu Teodora Elena</t>
-  </si>
-  <si>
-    <t>https://towardsdatascience.com/image-classification-in-10-minutes-with-mnist-dataset-54c35b77a38d</t>
-  </si>
-  <si>
-    <t>https://docplayer.net/51102270-Text-based-image-segmentation-methodology.html</t>
-  </si>
-  <si>
-    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.407.6445&amp;rep=rep1&amp;type=pdf</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/24731810/segmenting-license-plate-characters</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+  <si>
+    <t>Modul</t>
+  </si>
+  <si>
+    <t>Persoana</t>
+  </si>
+  <si>
+    <t>Saptamana #1</t>
+  </si>
+  <si>
+    <t>Saptamana #2</t>
+  </si>
+  <si>
+    <t>Saptamana #3</t>
+  </si>
+  <si>
+    <t>Saptamana #4</t>
+  </si>
+  <si>
+    <t>Importanta</t>
+  </si>
+  <si>
+    <t>Dificultate (low/medium/high)</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Ne/Realizat</t>
+  </si>
+  <si>
+    <t>Administrare</t>
+  </si>
+  <si>
+    <t>Tabarcea Augustus-Vasile</t>
+  </si>
+  <si>
+    <t>Eșanu Andra-Georgiana</t>
+  </si>
+  <si>
+    <t>Stabilit tool-urile folosite pt testarea componentelor.
+Research pe set-uri de validare/testare care ar putea fi folosite si cum, ori din sursele actuale ori din surse externe</t>
+  </si>
+  <si>
+    <t>Bulai Iuliana-Bianca</t>
+  </si>
+  <si>
+    <t>Macovei Gabriela</t>
+  </si>
+  <si>
+    <t>Research pe o schema high-level al modului de imbinare a componentelor intre ele si datele necesare fiecaruia din ele.
+Stabilit un protocol pentru endpoint-uri. Aproximat format-ul outputului oferit de fiecare componenta. Research very-low-devops/dev tools.</t>
+  </si>
+  <si>
+    <t>Ciobanu Ștefana</t>
+  </si>
+  <si>
+    <t>Stabilit daca e necesara folosirea frameworkurilor, iar daca da, care.
+Inceput design pentru mock-uri pentru pagini.
+Stabilit ce date va inputa clientul</t>
+  </si>
+  <si>
+    <t>Bejinariu Anca</t>
+  </si>
+  <si>
+    <t>Activitate in grup/Comentarii</t>
+  </si>
+  <si>
+    <t>Segmentare Rand</t>
+  </si>
+  <si>
+    <t>Mititelu Ioan-Alexandru</t>
+  </si>
+  <si>
+    <t>Bîgu Mihnea</t>
+  </si>
+  <si>
+    <t>Bacaoanu Nicoleta-Ioana</t>
+  </si>
+  <si>
+    <t>Dominte Delia</t>
+  </si>
+  <si>
+    <t>Romila Vlad-Ciprian</t>
+  </si>
+  <si>
+    <t>Char Replacement</t>
+  </si>
+  <si>
+    <t>Zaharia Raul</t>
+  </si>
+  <si>
+    <t>Momentum and Nesterov Acclerated Gradient</t>
+  </si>
+  <si>
+    <t>Apachiței Luisa-Maria</t>
+  </si>
+  <si>
+    <t>Adagrad</t>
+  </si>
+  <si>
+    <t>Surdu Cosmin-Gabriel</t>
+  </si>
+  <si>
+    <t>Adadelta</t>
+  </si>
+  <si>
+    <t>Nistor Șerban</t>
+  </si>
+  <si>
+    <t>RmsProp</t>
+  </si>
+  <si>
+    <t>Research: cum influențează ajustarea hyperparametrilor output-ul rețelelor neuronale. 
+Studiu de caz: OCR pe setul de date de la mnist</t>
+  </si>
+  <si>
+    <t>Mapping(Spatiere+Dictionar)</t>
+  </si>
+  <si>
+    <t>Dominte Teodor</t>
+  </si>
+  <si>
+    <t>utilizarea dexonline.ro drept baza de date pentru a putea face maparea cuvintelor vechi la cele noi</t>
+  </si>
+  <si>
+    <t>Oică Andra-Maria</t>
+  </si>
+  <si>
+    <t>dictionar cu termenii gasiti pentru a nu mai face requesturi la dex (cache de cuvinte)</t>
+  </si>
+  <si>
+    <t>Milea Mihai</t>
+  </si>
+  <si>
+    <t>optimizarea searchului prin alegerea primului termen furnixat de dex</t>
+  </si>
+  <si>
+    <t>Hamod Adrian</t>
+  </si>
+  <si>
+    <t>layer de comunicare a datelor catre backend/frontend (arhitectura de api, somehow)</t>
+  </si>
+  <si>
+    <t>Fiecare linie reprezinta ideea pe care acel membru a dat-o in cadrul discutiei de azi.</t>
+  </si>
+  <si>
+    <t>Preprocesare(segmentare caracter/cuvant)</t>
+  </si>
+  <si>
+    <t>Bălăiță Anca-Georgiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchgate.net/publication/228896273_Character_segmentation_and_recognition_algorithm_of_text_region_in_steel_images 
+https://pdfs.semanticscholar.org/cadb/b5409ed07abba109422ef516c822a9fcb014.pdf 
+https://www.sciencedirect.com/science/article/pii/S2212017314000954 
+https://arxiv.org/ftp/arxiv/papers/1210/1210.0347.pdf 
+</t>
+  </si>
+  <si>
+    <t>Timcu Teodora-Elena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://towardsdatascience.com/image-classification-in-10-minutes-with-mnist-dataset-54c35b77a38d 
+https://docplayer.net/51102270-Text-based-image-segmentation-methodology.html 
+http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.407.6445&amp;rep=rep1&amp;type=pdf 
+https://stackoverflow.com/questions/24731810/segmenting-license-plate-characters 
+</t>
+  </si>
+  <si>
+    <t>Duduman Adina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=_5ml_Y9hqG8 
+https://developer.ibm.com/tutorials/document-scanner/ 
+https://ampersandacademy.com/tutorials/python-data-science/recognise-text-and-digit-from-the-image-with-python-opencv-and-tesseract-ocr 
+https://www.quora.com/How-can-I-make-an-OCR-using-python-and-machine-learning-libraries 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discutia cu celelalte module si decizia asupra anumitor elemente de implementare:
+- input: imagine ce contine un rand; output: lista de matrici(cate o matrice pentru fiecare litera de pe rand; valorile matricei cuprinse intre 0(alb) si 1(negru))
+- impartirea randului in litere se face pe baza unei lungimi medii a literelor
+Documentare asupra problemei si a implementarii.
+</t>
+  </si>
+  <si>
+    <t>Am comparat feature-urile oferite de fiecare tool mentionat  anterior, le-am testat pentru a vedea daca se potrivesc cu cerinta problemei noastre, am pus in balanta ce ofera si ce dependente are fiecare, si am ales in final sa folosim mai departe Ocropy</t>
+  </si>
+  <si>
+    <t>Research invidual pe un tool de segmentare: tesseract</t>
+  </si>
+  <si>
+    <t>Research invidual pe un tool de segmentare: scikit-image</t>
+  </si>
+  <si>
+    <t>Research invidual pe un tool de segmentare: LineSegm</t>
+  </si>
+  <si>
+    <t>Research invidual pe un tool de segmentare: Image2Lines</t>
+  </si>
+  <si>
+    <t>Reasearch invidual pe un tool de segmentare: Ocropy</t>
+  </si>
+  <si>
+    <t>Ajutat la stabilirea environment-ului pentru integrare (a se vedea Macovei Gabriela). Facut repository GIT. Facut pagina minimala cu link catre google docs si xmls.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,31 +243,84 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC65911"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1C232"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -132,19 +328,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,142 +943,509 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="94.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="2" t="s">
+    <row r="2" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="2" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="2" t="s">
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="2" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="2" t="s">
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="44"/>
+    </row>
+    <row r="15" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50"/>
+      <c r="B21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
+      <c r="B24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="1:10" ht="153" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" ht="158.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="54"/>
+      <c r="B26" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27" spans="1:10" ht="173.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="55"/>
+      <c r="B27" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" ht="171" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="55"/>
+      <c r="B28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{4A73E04C-7FEC-4DE8-AF4C-371E75C7892F}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{B06E6FCD-1B4B-4B92-BA98-31A40C232E76}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{1DCDA1B7-0D9F-4BC8-BBE7-7F2121433AF0}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{A2E46252-52A8-44F8-AEE0-331D220B90A3}"/>
-    <hyperlink ref="B17" r:id="rId5" xr:uid="{6EF491A8-8569-4BC3-B394-6485A2D3E10B}"/>
-    <hyperlink ref="B18" r:id="rId6" xr:uid="{BD1C71E3-1103-4D50-A9DD-F021600ABC62}"/>
-    <hyperlink ref="B19" r:id="rId7" xr:uid="{14F9CB73-5972-41BD-A05B-9D8A411491EA}"/>
-    <hyperlink ref="B20" r:id="rId8" xr:uid="{5BCFDB2A-CDAA-4B91-9985-A67F484408F4}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{6B00DE62-0482-4432-A930-056D63826198}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{B61771F5-12A8-429C-A819-9FF0A40C18DC}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{E370F23A-D971-40F7-85B1-52C864BDDAB7}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{92974488-E824-4579-9B6C-DA9FA2A320E7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>